--- a/ResultTest.xlsx
+++ b/ResultTest.xlsx
@@ -27,45 +27,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他各项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>点击</t>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>供货编号</t>
+  </si>
+  <si>
+    <t>在变更前供货编号中填写7511</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击检索按钮</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">确定 	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">点击确定按钮	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他各项为默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>在变更前供货编号中填写75111LA220</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>75111LA220</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检索 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,12 +85,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -105,6 +104,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,84 +142,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="91">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -237,6 +278,16 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -272,6 +323,16 @@
     <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -546,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,46 +618,94 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7511</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
